--- a/visualization/drop.xlsx
+++ b/visualization/drop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Library/Mobile Documents/com~apple~CloudDocs/北京理工大学/Beamer/Idea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53DE67-8825-6146-A793-7232B700C480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A317A79-98A1-DC44-96C8-60EE4207E8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="7060" windowWidth="21600" windowHeight="17440" xr2:uid="{E5AB2CCF-3C5E-A34F-906C-CBFF193498CF}"/>
+    <workbookView xWindow="51200" yWindow="21060" windowWidth="21600" windowHeight="17440" xr2:uid="{E5AB2CCF-3C5E-A34F-906C-CBFF193498CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Token Drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Token Progressively Drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token Merging</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7689C78-FB58-F841-8997-72A9EEB28BFD}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -546,6 +550,44 @@
       </c>
       <c r="L3">
         <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.433</v>
+      </c>
+      <c r="C4">
+        <v>0.42</v>
+      </c>
+      <c r="D4">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.379</v>
+      </c>
+      <c r="F4">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.224</v>
+      </c>
+      <c r="K4">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.126</v>
       </c>
     </row>
   </sheetData>
